--- a/average_satisfaction_random_g1.xlsx
+++ b/average_satisfaction_random_g1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59753089-74FE-45E9-80EE-1EA49377020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39095096-4BB8-4EF0-A3BA-C75877147467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{781654B0-0A37-47DA-A4E4-2B924B3196F0}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{E5577608-F04B-4DA6-9284-CA5D98E0921A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A6899-4130-4BB1-81C8-6914CD8E4139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D150A4-BDDA-40C0-B98A-00B9EE49E7F2}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,28 +388,28 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.60793124032349466</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>0.70448021803363514</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.79248437728257215</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0.6106347967434721</v>
+        <v>0.61198393379101956</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>0.44563068132197281</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
-        <v>0.67654417802171929</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="M1">
-        <v>0.76879048292487284</v>
+        <v>0</v>
       </c>
       <c r="N1">
         <v>0</v>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="P1">
-        <v>0.60722151357029353</v>
+        <v>0.68642783786477424</v>
       </c>
       <c r="Q1">
         <v>0</v>
       </c>
       <c r="R1">
-        <v>0.69115920599514613</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>0.64498605670606202</v>
+        <v>0.78796988946846747</v>
       </c>
       <c r="T1">
-        <v>0.60883856879798759</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>0.67685801434723714</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -466,13 +466,13 @@
         <v>0</v>
       </c>
       <c r="AA1">
-        <v>0.67992290160590318</v>
+        <v>0.57005474062393713</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>0.61041296446169668</v>
       </c>
       <c r="AC1">
-        <v>0.75037906176643232</v>
+        <v>0</v>
       </c>
       <c r="AD1">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AH1">
-        <v>0.60150429584317111</v>
+        <v>0.5581258257078423</v>
       </c>
       <c r="AI1">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="AL1">
-        <v>0.74784691780995172</v>
+        <v>0</v>
       </c>
       <c r="AM1">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="AQ1">
-        <v>0</v>
+        <v>0.85227454863103036</v>
       </c>
       <c r="AR1">
-        <v>0.59199008188607849</v>
+        <v>0.51902787531471739</v>
       </c>
       <c r="AS1">
-        <v>0.63441945135600075</v>
+        <v>0.57827183245659564</v>
       </c>
       <c r="AT1">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="AV1">
-        <v>0.66149061863468805</v>
+        <v>0</v>
       </c>
       <c r="AW1">
         <v>0</v>
       </c>
       <c r="AX1">
-        <v>0</v>
+        <v>0.6795751335338247</v>
       </c>
       <c r="AY1">
         <v>0</v>
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="BB1">
-        <v>0.68120607051425408</v>
+        <v>0</v>
       </c>
       <c r="BC1">
         <v>0</v>
       </c>
       <c r="BD1">
-        <v>0.5015265171884371</v>
+        <v>0</v>
       </c>
       <c r="BE1">
         <v>0</v>
       </c>
       <c r="BF1">
-        <v>0</v>
+        <v>0.63675713472812667</v>
       </c>
       <c r="BG1">
-        <v>0.60675166443362349</v>
+        <v>0</v>
       </c>
       <c r="BH1">
         <v>0</v>
       </c>
       <c r="BI1">
-        <v>0</v>
+        <v>0.85229099389306562</v>
       </c>
       <c r="BJ1">
         <v>0</v>
@@ -577,19 +577,19 @@
         <v>0</v>
       </c>
       <c r="BL1">
-        <v>0</v>
+        <v>0.61010652542946342</v>
       </c>
       <c r="BM1">
-        <v>0</v>
+        <v>0.63290279718831854</v>
       </c>
       <c r="BN1">
-        <v>0.7240768565214426</v>
+        <v>0</v>
       </c>
       <c r="BO1">
         <v>0</v>
       </c>
       <c r="BP1">
-        <v>0</v>
+        <v>0.54709886210517711</v>
       </c>
       <c r="BQ1">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="BV1">
-        <v>0.62460594283432203</v>
+        <v>0</v>
       </c>
       <c r="BW1">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="BY1">
-        <v>0.63305692357204024</v>
+        <v>0</v>
       </c>
       <c r="BZ1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="CE1">
-        <v>0.76997798079528823</v>
+        <v>0</v>
       </c>
       <c r="CF1">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="CH1">
-        <v>0.61505076324267272</v>
+        <v>0</v>
       </c>
       <c r="CI1">
-        <v>0.73069496433418935</v>
+        <v>0</v>
       </c>
       <c r="CJ1">
         <v>0</v>
@@ -670,22 +670,22 @@
         <v>0</v>
       </c>
       <c r="CQ1">
-        <v>0.62500506347080476</v>
+        <v>0.65964164738291031</v>
       </c>
       <c r="CR1">
-        <v>0.76527477270697597</v>
+        <v>0</v>
       </c>
       <c r="CS1">
         <v>0</v>
       </c>
       <c r="CT1">
-        <v>0</v>
+        <v>0.66249024444390048</v>
       </c>
       <c r="CU1">
-        <v>0.54439942531205765</v>
+        <v>0.67708148161235038</v>
       </c>
       <c r="CV1">
-        <v>0</v>
+        <v>0.5477973377893427</v>
       </c>
     </row>
   </sheetData>
